--- a/uploads/Book1.xlsx
+++ b/uploads/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fzw7d-my.sharepoint.com/personal/hptprobook_fzw7d_onmicrosoft_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{9D42B9B4-8A17-45CD-BF01-9E08A493A799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB0EDA7C-1A0A-4FDC-8BCF-5DCA850C1124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{258228F7-2893-410A-96CE-F53458D8FEC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E359412-9851-4B20-ACBE-7DA41A157A70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>image_url</t>
+  </si>
   <si>
     <t>product_code</t>
   </si>
@@ -51,40 +65,16 @@
     <t>Mũ cối</t>
   </si>
   <si>
-    <t>uploads/6.jpg</t>
-  </si>
-  <si>
-    <t>#22</t>
-  </si>
-  <si>
-    <t>ahihi</t>
-  </si>
-  <si>
-    <t>ahii</t>
-  </si>
-  <si>
-    <t>Mũ lá</t>
-  </si>
-  <si>
-    <t>#23</t>
-  </si>
-  <si>
-    <t>ahihidsfads</t>
-  </si>
-  <si>
-    <t>sadfadsfasdfasd</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>image_url</t>
+    <t>uploads/pr1.php</t>
+  </si>
+  <si>
+    <t>#33</t>
+  </si>
+  <si>
+    <t>dáiofndisoafn</t>
+  </si>
+  <si>
+    <t>1joioinfios</t>
   </si>
 </sst>
 </file>
@@ -95,9 +85,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -436,95 +425,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8887A0B6-BA4C-4ABD-985E-1B6058298C2A}">
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73601BAC-4CE7-4B9D-963B-A21C3C6ACC78}">
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3">
         <v>2</v>
       </c>
     </row>
